--- a/2016년 재료비 6월/배드민턴1 재료비.xlsx
+++ b/2016년 재료비 6월/배드민턴1 재료비.xlsx
@@ -574,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>

--- a/2016년 재료비 6월/배드민턴1 재료비.xlsx
+++ b/2016년 재료비 6월/배드민턴1 재료비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -265,9 +265,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,40 +574,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -627,7 +627,7 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="9">
         <v>2000</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -650,7 +650,7 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="9">
         <v>2000</v>
       </c>
       <c r="G3" s="3"/>
@@ -671,7 +671,7 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="9">
         <v>2000</v>
       </c>
       <c r="G4" s="3"/>
@@ -692,7 +692,7 @@
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="9">
         <v>2000</v>
       </c>
       <c r="G5" s="3"/>
@@ -713,7 +713,7 @@
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>2000</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -736,7 +736,7 @@
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>2000</v>
       </c>
       <c r="G7" s="3"/>
@@ -757,7 +757,7 @@
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="9">
         <v>2000</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -780,7 +780,7 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9">
         <v>2000</v>
       </c>
       <c r="G9" s="3"/>
@@ -801,7 +801,7 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="9">
         <v>2000</v>
       </c>
       <c r="G10" s="3"/>
@@ -822,7 +822,7 @@
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="9">
         <v>2000</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -845,7 +845,7 @@
       <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="9">
         <v>2000</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -868,7 +868,7 @@
       <c r="E13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="9">
         <v>2000</v>
       </c>
       <c r="G13" s="3"/>
@@ -889,7 +889,7 @@
       <c r="E14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="9">
         <v>2000</v>
       </c>
       <c r="G14" s="3"/>
@@ -910,7 +910,7 @@
       <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="9">
         <v>2000</v>
       </c>
       <c r="G15" s="3"/>
@@ -931,7 +931,7 @@
       <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="9">
         <v>2000</v>
       </c>
       <c r="G16" s="3"/>
@@ -952,7 +952,7 @@
       <c r="E17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="9">
         <v>2000</v>
       </c>
       <c r="G17" s="3"/>
@@ -973,7 +973,7 @@
       <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="9">
         <v>2000</v>
       </c>
       <c r="G18" s="3"/>
@@ -994,7 +994,7 @@
       <c r="E19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="9">
         <v>2000</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1017,7 +1017,7 @@
       <c r="E20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="9">
         <v>2000</v>
       </c>
       <c r="G20" s="3"/>
@@ -1038,7 +1038,7 @@
       <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="9">
         <v>2000</v>
       </c>
       <c r="G21" s="3"/>
@@ -1059,7 +1059,7 @@
       <c r="E22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="9">
         <v>2000</v>
       </c>
       <c r="G22" s="3"/>
@@ -1080,7 +1080,7 @@
       <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="9">
         <v>2000</v>
       </c>
       <c r="G23" s="3"/>
@@ -1101,7 +1101,7 @@
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="9">
         <v>2000</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -1124,7 +1124,7 @@
       <c r="E25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="9">
         <v>2000</v>
       </c>
       <c r="G25" s="3"/>
@@ -1145,7 +1145,7 @@
       <c r="E26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="9">
         <v>2000</v>
       </c>
       <c r="G26" s="3"/>
@@ -1166,7 +1166,7 @@
       <c r="E27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="9">
         <v>2000</v>
       </c>
       <c r="G27" s="3"/>
@@ -1187,7 +1187,7 @@
       <c r="E28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="9">
         <v>2000</v>
       </c>
       <c r="G28" s="3"/>
@@ -1208,7 +1208,7 @@
       <c r="E29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="9">
         <v>2000</v>
       </c>
       <c r="G29" s="3"/>
@@ -1229,7 +1229,7 @@
       <c r="E30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="9">
         <v>2000</v>
       </c>
       <c r="G30" s="3"/>
@@ -1250,7 +1250,7 @@
       <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="9">
         <v>2000</v>
       </c>
       <c r="G31" s="3"/>
@@ -1271,7 +1271,7 @@
       <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="9">
         <v>2000</v>
       </c>
       <c r="G32" s="3"/>
@@ -1292,7 +1292,7 @@
       <c r="E33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="9">
         <v>2000</v>
       </c>
       <c r="G33" s="3"/>
@@ -1313,7 +1313,7 @@
       <c r="E34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="9">
         <v>2000</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -1336,7 +1336,7 @@
       <c r="E35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="9">
         <v>2000</v>
       </c>
       <c r="G35" s="3"/>
@@ -1357,7 +1357,7 @@
       <c r="E36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="9">
         <v>2000</v>
       </c>
       <c r="G36" s="3"/>
@@ -1378,7 +1378,7 @@
       <c r="E37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="9">
         <v>2000</v>
       </c>
       <c r="G37" s="3"/>
@@ -1399,7 +1399,7 @@
       <c r="E38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="9">
         <v>2000</v>
       </c>
       <c r="G38" s="3"/>
@@ -1420,7 +1420,7 @@
       <c r="E39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="9">
         <v>2000</v>
       </c>
       <c r="G39" s="3"/>
@@ -1441,7 +1441,7 @@
       <c r="E40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="9">
         <v>2000</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -1464,7 +1464,7 @@
       <c r="E41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="9">
         <v>2000</v>
       </c>
       <c r="G41" s="3"/>
@@ -1485,16 +1485,13 @@
       <c r="E42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="9">
         <v>2000</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="F43" s="7">
-        <f>SUM(F2:F42)</f>
-        <v>82000</v>
-      </c>
+      <c r="F43" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
